--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_6.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_6.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9958195094974324</v>
+        <v>0.9318820860940703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.822685324905984</v>
+        <v>0.6930104890379716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8163633664276314</v>
+        <v>0.7334586568476067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9954822416115642</v>
+        <v>0.9258320286013966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01740140332279342</v>
+        <v>0.23878806801187</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18570404881269</v>
+        <v>2.052840273359805</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6568575904245599</v>
+        <v>0.9534029295010489</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01209945929844405</v>
+        <v>0.3688565128983046</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3590728406031047</v>
+        <v>1.185729526031385</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1319143787568035</v>
+        <v>0.4886594601681932</v>
       </c>
       <c r="L2" t="n">
-        <v>1.267551392164329</v>
+        <v>0.9072436917025638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1339918983562227</v>
+        <v>0.4963553581855931</v>
       </c>
       <c r="N2" t="n">
-        <v>138.102408850557</v>
+        <v>36.86435773032302</v>
       </c>
       <c r="O2" t="n">
-        <v>279.4375813937734</v>
+        <v>73.82894131854884</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.995750883954712</v>
+        <v>0.9317732154016742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8225040499926242</v>
+        <v>0.6927316163114114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8165053664403836</v>
+        <v>0.7329148741540559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9952781847932491</v>
+        <v>0.9258371800491558</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01768705897645161</v>
+        <v>0.2391697153761193</v>
       </c>
       <c r="G3" t="n">
-        <v>1.186916234993021</v>
+        <v>2.054705096566404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.656349664612579</v>
+        <v>0.9553480086655479</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01264596421426531</v>
+        <v>0.368830893415649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3596632051249588</v>
+        <v>1.187312324066792</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1329927027188018</v>
+        <v>0.489049808686313</v>
       </c>
       <c r="L3" t="n">
-        <v>1.271943426898432</v>
+        <v>0.9070954422490883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.135087204842694</v>
+        <v>0.4967518543026679</v>
       </c>
       <c r="N3" t="n">
-        <v>138.0698440761662</v>
+        <v>36.86116374576098</v>
       </c>
       <c r="O3" t="n">
-        <v>279.4050166193826</v>
+        <v>73.82574733398681</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9952614872871771</v>
+        <v>0.9315611888316411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8219333471537651</v>
+        <v>0.6922682680103333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8154598014043619</v>
+        <v>0.7323644567064784</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9956428011332598</v>
+        <v>0.9256855866496236</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01972418567040623</v>
+        <v>0.2399129767610073</v>
       </c>
       <c r="G4" t="n">
-        <v>1.190732527504317</v>
+        <v>2.057803508789236</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6600895901210847</v>
+        <v>0.9573168199604949</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01166944883070717</v>
+        <v>0.3695848066166633</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3800315546825574</v>
+        <v>1.188882935522978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1404428199318364</v>
+        <v>0.489809122782546</v>
       </c>
       <c r="L4" t="n">
-        <v>1.303264813620665</v>
+        <v>0.9068067252175538</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1426546539544489</v>
+        <v>0.497523126836881</v>
       </c>
       <c r="N4" t="n">
-        <v>137.851819394478</v>
+        <v>36.85495803644682</v>
       </c>
       <c r="O4" t="n">
-        <v>279.1869919376944</v>
+        <v>73.81954162467264</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9951756714886041</v>
+        <v>0.9313343300715158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8218283131588191</v>
+        <v>0.6917760910337647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8154305572753051</v>
+        <v>0.7317868689145133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9956094538604442</v>
+        <v>0.9255170305192706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02008139622297686</v>
+        <v>0.2407082325452157</v>
       </c>
       <c r="G5" t="n">
-        <v>1.191434890312158</v>
+        <v>2.061094698497816</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6601941946750488</v>
+        <v>0.95938281800189</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01175875948777543</v>
+        <v>0.370423079867195</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3834349069396099</v>
+        <v>1.19048221605434</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1417088431361179</v>
+        <v>0.4906202528893561</v>
       </c>
       <c r="L5" t="n">
-        <v>1.308757024729339</v>
+        <v>0.906497811161213</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1439406157586389</v>
+        <v>0.4983470314320407</v>
       </c>
       <c r="N5" t="n">
-        <v>137.8159229071183</v>
+        <v>36.84833946452721</v>
       </c>
       <c r="O5" t="n">
-        <v>279.1510954503347</v>
+        <v>73.81292305275304</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9946769028842462</v>
+        <v>0.9311790603232777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8214278979418509</v>
+        <v>0.6914046299612051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8150351602690954</v>
+        <v>0.7311604495172654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9958698375543353</v>
+        <v>0.9254688554784857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02215753385415847</v>
+        <v>0.2412525322907079</v>
       </c>
       <c r="G6" t="n">
-        <v>1.194112468711767</v>
+        <v>2.063578660400443</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6616085068398251</v>
+        <v>0.9616234838639617</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01106139994896531</v>
+        <v>0.3706626668104208</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4009483732667595</v>
+        <v>1.192186554242619</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1488540689875775</v>
+        <v>0.491174645407016</v>
       </c>
       <c r="L6" t="n">
-        <v>1.340678215408246</v>
+        <v>0.906286380014676</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1511983717746536</v>
+        <v>0.4989101550776646</v>
       </c>
       <c r="N6" t="n">
-        <v>137.6191554229316</v>
+        <v>36.84382208455267</v>
       </c>
       <c r="O6" t="n">
-        <v>278.954327966148</v>
+        <v>73.80840567277849</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9937989893664028</v>
+        <v>0.9309558788583155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8209244395817406</v>
+        <v>0.6909108037236156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8141177981809442</v>
+        <v>0.7305143794293543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9964103156830243</v>
+        <v>0.9253225650339064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02581187230969199</v>
+        <v>0.2420348972778091</v>
       </c>
       <c r="G7" t="n">
-        <v>1.197479097084037</v>
+        <v>2.066880878725065</v>
       </c>
       <c r="H7" t="n">
-        <v>0.664889857837432</v>
+        <v>0.9639344391071241</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009613891570360895</v>
+        <v>0.3713902070443026</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4326669570217912</v>
+        <v>1.193915216906242</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1606607366772977</v>
+        <v>0.4919704231738013</v>
       </c>
       <c r="L7" t="n">
-        <v>1.396864680550223</v>
+        <v>0.9059824733389829</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1631909826781492</v>
+        <v>0.4997184655487908</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3138414517132</v>
+        <v>36.83734671918896</v>
       </c>
       <c r="O7" t="n">
-        <v>278.6490139949296</v>
+        <v>73.80193030741479</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9936875771445446</v>
+        <v>0.9307514694009882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8208212955513761</v>
+        <v>0.6904442494865682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8140784724985934</v>
+        <v>0.7298142538735619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9964150515183666</v>
+        <v>0.9252120368668155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02627562865753024</v>
+        <v>0.2427514567935036</v>
       </c>
       <c r="G8" t="n">
-        <v>1.198168821690019</v>
+        <v>2.070000729056486</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6650305235229663</v>
+        <v>0.9664387476245808</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009601208057423545</v>
+        <v>0.3719398922186624</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4355916672854857</v>
+        <v>1.195743816227447</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1620975899189443</v>
+        <v>0.4926981396286205</v>
       </c>
       <c r="L8" t="n">
-        <v>1.403995062749146</v>
+        <v>0.9057041285460264</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1646504649220255</v>
+        <v>0.5004576428103238</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2782268728676</v>
+        <v>36.83143434123927</v>
       </c>
       <c r="O8" t="n">
-        <v>278.613399416084</v>
+        <v>73.79601792946508</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9929722192500393</v>
+        <v>0.9305633174469201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8199862110149113</v>
+        <v>0.690000832178489</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8133307100059788</v>
+        <v>0.7290769664597812</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9965320535050219</v>
+        <v>0.9251379898750064</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02925332499119837</v>
+        <v>0.243411025459488</v>
       </c>
       <c r="G9" t="n">
-        <v>1.20375303583057</v>
+        <v>2.072965862637361</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6677052266012887</v>
+        <v>0.969075981953294</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00928785336829344</v>
+        <v>0.372308147068759</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4555535603629648</v>
+        <v>1.197635429552891</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1710360341892853</v>
+        <v>0.4933670291572877</v>
       </c>
       <c r="L9" t="n">
-        <v>1.449777967997484</v>
+        <v>0.9054479216298487</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1737296807544581</v>
+        <v>0.5011370666804232</v>
       </c>
       <c r="N9" t="n">
-        <v>137.063524073704</v>
+        <v>36.82600760351492</v>
       </c>
       <c r="O9" t="n">
-        <v>278.3986966169204</v>
+        <v>73.79059119174075</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9917263840731433</v>
+        <v>0.9303537876160075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8196259219493471</v>
+        <v>0.6895158338299098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8130096215429311</v>
+        <v>0.7283004101248124</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9965053902020591</v>
+        <v>0.9250409595925789</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03443914717488121</v>
+        <v>0.2441455344989687</v>
       </c>
       <c r="G10" t="n">
-        <v>1.206162290470976</v>
+        <v>2.076209048827522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6688537414158315</v>
+        <v>0.971853678936154</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009359263019102995</v>
+        <v>0.3727907037700792</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4854140948588471</v>
+        <v>1.199582157701515</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1855778736134273</v>
+        <v>0.494110852439985</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52951141931883</v>
+        <v>0.9051626044132868</v>
       </c>
       <c r="M10" t="n">
-        <v>0.188500539613024</v>
+        <v>0.5018926044362727</v>
       </c>
       <c r="N10" t="n">
-        <v>136.7371227247266</v>
+        <v>36.81998155726324</v>
       </c>
       <c r="O10" t="n">
-        <v>278.072295267943</v>
+        <v>73.78456514548907</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9915622702665076</v>
+        <v>0.930130599944348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.819570386005038</v>
+        <v>0.6890022573553809</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8128890319611102</v>
+        <v>0.7274784723708596</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9964342069844746</v>
+        <v>0.9249328509977127</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03512227527632163</v>
+        <v>0.244927921243713</v>
       </c>
       <c r="G11" t="n">
-        <v>1.206533659586291</v>
+        <v>2.079643337077498</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6692850833578192</v>
+        <v>0.974793702623354</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009549905893254962</v>
+        <v>0.3733283557856962</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4906024790140492</v>
+        <v>1.201571778178911</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1874093788376708</v>
+        <v>0.4949019309355269</v>
       </c>
       <c r="L11" t="n">
-        <v>1.540014702943516</v>
+        <v>0.9048586892859207</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1903608892137159</v>
+        <v>0.5026961416273309</v>
       </c>
       <c r="N11" t="n">
-        <v>136.6978394530829</v>
+        <v>36.81358262145536</v>
       </c>
       <c r="O11" t="n">
-        <v>278.0330119962994</v>
+        <v>73.77816620968119</v>
       </c>
     </row>
   </sheetData>
